--- a/biology/Médecine/Université_nationale_d'Ukraine_occidentale/Université_nationale_d'Ukraine_occidentale.xlsx
+++ b/biology/Médecine/Université_nationale_d'Ukraine_occidentale/Université_nationale_d'Ukraine_occidentale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_nationale_d%27Ukraine_occidentale</t>
+          <t>Université_nationale_d'Ukraine_occidentale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'université nationale d'Ukraine occidentale (en ukrainien : Західноукраїнський національний університет) est une université publique située à Ternopil, dans l'Ouest de l'Ukraine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_nationale_d%27Ukraine_occidentale</t>
+          <t>Université_nationale_d'Ukraine_occidentale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Initialement fondée en tant qu'antenne de l'université nationale d'économie de Kiev, l'université nationale d'Ukraine occidentale est indépendante depuis 1971.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_nationale_d%27Ukraine_occidentale</t>
+          <t>Université_nationale_d'Ukraine_occidentale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,48 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'université est actuellement constituée de dix départements.
-Activité internationale
-Anciens élèves
-Rouslan Kochoulynsky,
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'université est actuellement constituée de dix départements.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Université_nationale_d'Ukraine_occidentale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_nationale_d%27Ukraine_occidentale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Anciens élèves</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Rouslan Kochoulynsky,
 Viktoria Tkatchouk,
 Kirill Stremooussov.</t>
         </is>
